--- a/product/抽奖结果.xlsx
+++ b/product/抽奖结果.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,148 +402,137 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>初一</v>
-      </c>
-      <c r="B3" t="str">
-        <v>西西帕斯</v>
-      </c>
-      <c r="C3" t="str">
-        <v>53班</v>
+        <v>特等奖</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>特等奖</v>
+        <v>初一</v>
+      </c>
+      <c r="B4" t="str">
+        <v>丁莉淳</v>
+      </c>
+      <c r="C4" t="str">
+        <v>5班</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>初三</v>
-      </c>
-      <c r="B5" t="str">
-        <v>学生322</v>
-      </c>
-      <c r="C5" t="str">
-        <v>454班</v>
+        <v>一等奖</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>一等奖</v>
+        <v>初一</v>
+      </c>
+      <c r="B6" t="str">
+        <v>汪健</v>
+      </c>
+      <c r="C6" t="str">
+        <v>6班</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>初三</v>
+        <v>初一</v>
       </c>
       <c r="B7" t="str">
-        <v>学生101</v>
+        <v>郭宏</v>
       </c>
       <c r="C7" t="str">
-        <v>233班</v>
+        <v>5班</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>初二</v>
+        <v>初一</v>
       </c>
       <c r="B8" t="str">
-        <v>艾薇儿</v>
+        <v>陈慧玲</v>
       </c>
       <c r="C8" t="str">
-        <v>130班</v>
+        <v>1班</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>初三</v>
-      </c>
-      <c r="B9" t="str">
-        <v>学生167</v>
-      </c>
-      <c r="C9" t="str">
-        <v>299班</v>
+        <v>二等奖</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>二等奖</v>
+        <v>初一</v>
+      </c>
+      <c r="B10" t="str">
+        <v>杨宇</v>
+      </c>
+      <c r="C10" t="str">
+        <v>5班</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>初二</v>
+        <v>初一</v>
       </c>
       <c r="B11" t="str">
-        <v>学生3</v>
+        <v>邓圆圆</v>
       </c>
       <c r="C11" t="str">
-        <v>135班</v>
+        <v>2班</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>初三</v>
+        <v>初一</v>
       </c>
       <c r="B12" t="str">
-        <v>学生88</v>
+        <v>洪欣怡</v>
       </c>
       <c r="C12" t="str">
-        <v>220班</v>
+        <v>4班</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>初三</v>
-      </c>
-      <c r="B13" t="str">
-        <v>学生342</v>
-      </c>
-      <c r="C13" t="str">
-        <v>474班</v>
+        <v>三等奖</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>三等奖</v>
+        <v>初一</v>
+      </c>
+      <c r="B14" t="str">
+        <v>钟美枝</v>
+      </c>
+      <c r="C14" t="str">
+        <v>5班</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>初三</v>
+        <v>初一</v>
       </c>
       <c r="B15" t="str">
-        <v>学生327</v>
+        <v>吴夷</v>
       </c>
       <c r="C15" t="str">
-        <v>459班</v>
+        <v>2班</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>初三</v>
+        <v>初一</v>
       </c>
       <c r="B16" t="str">
-        <v>学生144</v>
+        <v>刘天齐</v>
       </c>
       <c r="C16" t="str">
-        <v>276班</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>初三</v>
-      </c>
-      <c r="B17" t="str">
-        <v>学生334</v>
-      </c>
-      <c r="C17" t="str">
-        <v>466班</v>
+        <v>8班</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C16"/>
   </ignoredErrors>
 </worksheet>
 </file>